--- a/teaching/traditional_assets/database/data/denmark/denmark_electronics_general.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_electronics_general.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.5512820512820513</v>
+        <v>-0.7291666666666667</v>
       </c>
       <c r="H2">
-        <v>-0.5512820512820513</v>
+        <v>-0.8154761904761906</v>
       </c>
       <c r="I2">
-        <v>-0.5811965811965812</v>
+        <v>-0.755952380952381</v>
       </c>
       <c r="J2">
-        <v>-0.5811965811965812</v>
+        <v>-0.755952380952381</v>
       </c>
       <c r="K2">
-        <v>-1.3</v>
+        <v>-1.09</v>
       </c>
       <c r="L2">
-        <v>-0.5555555555555556</v>
+        <v>-0.6488095238095238</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06212121212121212</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-2.256880733944954</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,76 +627,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.46</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.805</v>
+        <v>1.09</v>
       </c>
       <c r="V2">
-        <v>0.04820359281437126</v>
+        <v>0.02752525252525253</v>
       </c>
       <c r="W2">
-        <v>-1.457399103139013</v>
+        <v>-0.6193181818181819</v>
       </c>
       <c r="X2">
-        <v>0.09243562185706725</v>
+        <v>0.06860776252520533</v>
       </c>
       <c r="Y2">
-        <v>-1.549834724996081</v>
+        <v>-0.6879259443433872</v>
       </c>
       <c r="Z2">
-        <v>1.766037735849056</v>
+        <v>1.228070175438597</v>
       </c>
       <c r="AA2">
-        <v>-1.026415094339623</v>
+        <v>-0.9283625730994153</v>
       </c>
       <c r="AB2">
-        <v>0.09092013118757804</v>
+        <v>0.06806180419959879</v>
       </c>
       <c r="AC2">
-        <v>-1.117335225527201</v>
+        <v>-0.996424377299014</v>
       </c>
       <c r="AD2">
-        <v>0.413</v>
+        <v>0.451</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.413</v>
+        <v>0.451</v>
       </c>
       <c r="AG2">
-        <v>-0.3920000000000001</v>
+        <v>-0.639</v>
       </c>
       <c r="AH2">
-        <v>0.02413369952667562</v>
+        <v>0.01126064268058226</v>
       </c>
       <c r="AI2">
-        <v>0.1900598251265531</v>
+        <v>0.1560013836042892</v>
       </c>
       <c r="AJ2">
-        <v>-0.02403728231542801</v>
+        <v>-0.0164010164010164</v>
       </c>
       <c r="AK2">
-        <v>-0.2865497076023393</v>
+        <v>-0.3548028872848418</v>
       </c>
       <c r="AL2">
-        <v>0.063</v>
+        <v>0.032</v>
       </c>
       <c r="AM2">
-        <v>0.063</v>
+        <v>0.032</v>
       </c>
       <c r="AN2">
-        <v>-0.3304</v>
+        <v>-0.4063063063063063</v>
       </c>
       <c r="AO2">
-        <v>-21.58730158730159</v>
+        <v>-39.6875</v>
       </c>
       <c r="AP2">
-        <v>0.3136</v>
+        <v>0.5756756756756757</v>
       </c>
       <c r="AQ2">
-        <v>-21.58730158730159</v>
+        <v>-39.6875</v>
       </c>
     </row>
     <row r="3">
@@ -716,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.5512820512820513</v>
+        <v>-0.7291666666666667</v>
       </c>
       <c r="H3">
-        <v>-0.5512820512820513</v>
+        <v>-0.8154761904761906</v>
       </c>
       <c r="I3">
-        <v>-0.5811965811965812</v>
+        <v>-0.755952380952381</v>
       </c>
       <c r="J3">
-        <v>-0.5811965811965812</v>
+        <v>-0.755952380952381</v>
       </c>
       <c r="K3">
-        <v>-1.3</v>
+        <v>-1.09</v>
       </c>
       <c r="L3">
-        <v>-0.5555555555555556</v>
+        <v>-0.6488095238095238</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>2.46</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.06212121212121212</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-2.256880733944954</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,76 +755,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.46</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.805</v>
+        <v>1.09</v>
       </c>
       <c r="V3">
-        <v>0.04820359281437126</v>
+        <v>0.02752525252525253</v>
       </c>
       <c r="W3">
-        <v>-1.457399103139013</v>
+        <v>-0.6193181818181819</v>
       </c>
       <c r="X3">
-        <v>0.09243562185706725</v>
+        <v>0.06860776252520533</v>
       </c>
       <c r="Y3">
-        <v>-1.549834724996081</v>
+        <v>-0.6879259443433872</v>
       </c>
       <c r="Z3">
-        <v>1.766037735849056</v>
+        <v>1.228070175438597</v>
       </c>
       <c r="AA3">
-        <v>-1.026415094339623</v>
+        <v>-0.9283625730994153</v>
       </c>
       <c r="AB3">
-        <v>0.09092013118757804</v>
+        <v>0.06806180419959879</v>
       </c>
       <c r="AC3">
-        <v>-1.117335225527201</v>
+        <v>-0.996424377299014</v>
       </c>
       <c r="AD3">
-        <v>0.413</v>
+        <v>0.451</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.413</v>
+        <v>0.451</v>
       </c>
       <c r="AG3">
-        <v>-0.3920000000000001</v>
+        <v>-0.639</v>
       </c>
       <c r="AH3">
-        <v>0.02413369952667562</v>
+        <v>0.01126064268058226</v>
       </c>
       <c r="AI3">
-        <v>0.1900598251265531</v>
+        <v>0.1560013836042892</v>
       </c>
       <c r="AJ3">
-        <v>-0.02403728231542801</v>
+        <v>-0.0164010164010164</v>
       </c>
       <c r="AK3">
-        <v>-0.2865497076023393</v>
+        <v>-0.3548028872848418</v>
       </c>
       <c r="AL3">
-        <v>0.063</v>
+        <v>0.032</v>
       </c>
       <c r="AM3">
-        <v>0.063</v>
+        <v>0.032</v>
       </c>
       <c r="AN3">
-        <v>-0.3304</v>
+        <v>-0.4063063063063063</v>
       </c>
       <c r="AO3">
-        <v>-21.58730158730159</v>
+        <v>-39.6875</v>
       </c>
       <c r="AP3">
-        <v>0.3136</v>
+        <v>0.5756756756756757</v>
       </c>
       <c r="AQ3">
-        <v>-21.58730158730159</v>
+        <v>-39.6875</v>
       </c>
     </row>
   </sheetData>
